--- a/data/trans_bre/IP19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 7,68</t>
+          <t>-11,17; 7,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -1,34</t>
+          <t>-11,48; -1,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 0,0</t>
+          <t>-15,97; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-88,27; 257,19</t>
+          <t>-84,88; 289,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,23</t>
+          <t>-3,12; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,9</t>
+          <t>-1,69; 4,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,25</t>
+          <t>-1,47; 4,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,82</t>
+          <t>-5,15; 1,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 86,92</t>
+          <t>-47,97; 94,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 214,59</t>
+          <t>-36,04; 184,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 210,16</t>
+          <t>-35,57; 226,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,75; 174,72</t>
+          <t>-85,68; 196,89</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,06</t>
+          <t>-0,05; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,12</t>
+          <t>-4,6; 4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,69</t>
+          <t>-3,26; 3,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 1,91</t>
+          <t>-6,05; 1,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,27; —</t>
+          <t>-51,32; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,84; 416,96</t>
+          <t>-82,84; 318,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-89,8; 117,2</t>
+          <t>-88,81; 89,16</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,63</t>
+          <t>-1,66; 3,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,96</t>
+          <t>-1,82; 2,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,41</t>
+          <t>-0,97; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,83</t>
+          <t>-4,48; 0,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 99,03</t>
+          <t>-27,37; 106,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 107,76</t>
+          <t>-38,76; 107,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 180,0</t>
+          <t>-29,85; 185,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 48,2</t>
+          <t>-76,71; 46,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 7,79</t>
+          <t>-11,6; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -1,38</t>
+          <t>-11,96; -1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 0,0</t>
+          <t>-15,95; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-84,88; 289,44</t>
+          <t>-86,13; 245,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-13,37%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,21</t>
+          <t>-3,01; 3,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,9</t>
+          <t>-1,53; 4,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 4,56</t>
+          <t>-1,43; 4,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,82</t>
+          <t>-5,11; 2,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 94,22</t>
+          <t>-45,16; 109,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 184,64</t>
+          <t>-35,99; 190,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 226,06</t>
+          <t>-35,09; 213,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,68; 196,89</t>
+          <t>-87,17; 238,09</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,16%</t>
+          <t>-46,78%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 11,06</t>
+          <t>0,1; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,81</t>
+          <t>-4,29; 5,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,39</t>
+          <t>-3,34; 3,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,77</t>
+          <t>-6,78; 1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,32; —</t>
+          <t>-54,43; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,84; 318,59</t>
+          <t>-78,58; 478,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-88,81; 89,16</t>
+          <t>-85,04; 78,1</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,6%</t>
+          <t>-34,5%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,92</t>
+          <t>-1,57; 3,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,85</t>
+          <t>-2,2; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,22</t>
+          <t>-0,98; 3,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,87</t>
+          <t>-4,59; 0,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 106,34</t>
+          <t>-27,65; 112,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 107,98</t>
+          <t>-43,37; 104,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 185,81</t>
+          <t>-29,56; 224,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,71; 46,01</t>
+          <t>-78,35; 48,89</t>
         </is>
       </c>
     </row>
